--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="11436" windowHeight="5424" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13620" windowHeight="2595"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Checklist" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:L7"/>
 </workbook>
 </file>
 
@@ -27,18 +28,12 @@
     <t>Password</t>
   </si>
   <si>
-    <t>welcome123</t>
-  </si>
-  <si>
     <t xml:space="preserve">service reminder </t>
   </si>
   <si>
     <t>Boiler service</t>
   </si>
   <si>
-    <t>aravind</t>
-  </si>
-  <si>
     <t>job description</t>
   </si>
   <si>
@@ -148,6 +143,12 @@
   </si>
   <si>
     <t>To create and accept an estimate without parts been added with retension and intial payment.</t>
+  </si>
+  <si>
+    <t>azar</t>
+  </si>
+  <si>
+    <t>demo123</t>
   </si>
 </sst>
 </file>
@@ -488,14 +489,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -503,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -511,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -519,23 +520,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -548,145 +549,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13620" windowHeight="2595"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="17220" windowHeight="3780"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Checklist" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <oleSize ref="A1:L7"/>
 </workbook>
 </file>
@@ -145,10 +145,10 @@
     <t>To create and accept an estimate without parts been added with retension and intial payment.</t>
   </si>
   <si>
-    <t>azar</t>
-  </si>
-  <si>
     <t>demo123</t>
+  </si>
+  <si>
+    <t>karna</t>
   </si>
 </sst>
 </file>
@@ -490,13 +490,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -520,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,11 +553,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -701,7 +701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="17220" windowHeight="3780"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="18528" windowHeight="6396"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>karna</t>
+    <t>karla</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="18528" windowHeight="6396"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="12876" windowHeight="4932"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>karla</t>
+    <t>karna</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Automation/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C8B71A78C72DFF6E272D0D83D79E4249CF1E396B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BCAE77-0341-432B-903D-EF0569743874}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="12876" windowHeight="4932"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L7"/>
 </workbook>
 </file>
 
@@ -148,14 +153,14 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>karna</t>
+    <t>azar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +204,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -245,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,9 +290,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,6 +342,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,20 +535,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -515,7 +564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -523,7 +572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -531,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -546,21 +595,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -583,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -594,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -602,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -610,7 +659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -618,7 +667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -626,7 +675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -634,7 +683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -642,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -650,7 +699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -658,7 +707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -666,7 +715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -674,7 +723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -682,7 +731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -696,12 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Automation/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C8B71A78C72DFF6E272D0D83D79E4249CF1E396B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BCAE77-0341-432B-903D-EF0569743874}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE3F599-78FE-4B5A-B3BD-53B601D1D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,10 @@
     <t>To create and accept an estimate without parts been added with retension and intial payment.</t>
   </si>
   <si>
-    <t>demo123</t>
-  </si>
-  <si>
-    <t>azar</t>
+    <t>nirai</t>
+  </si>
+  <si>
+    <t>nirai123</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE3F599-78FE-4B5A-B3BD-53B601D1D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="12876" windowHeight="3516"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -150,17 +145,17 @@
     <t>To create and accept an estimate without parts been added with retension and intial payment.</t>
   </si>
   <si>
-    <t>nirai</t>
-  </si>
-  <si>
-    <t>nirai123</t>
+    <t>karna</t>
+  </si>
+  <si>
+    <t>demo123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,27 +285,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,24 +319,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,20 +494,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -564,7 +523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,7 +531,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -580,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -595,21 +554,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -632,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -643,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -651,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -659,7 +618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -667,7 +626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -675,7 +634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -683,7 +642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -691,7 +650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -699,7 +658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -707,7 +666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -715,7 +674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -723,7 +682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -731,7 +690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -745,12 +704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Automation/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4462ECC3-86FD-4788-9E60-D383FCC806F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="12876" windowHeight="3516"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -145,17 +150,17 @@
     <t>To create and accept an estimate without parts been added with retension and intial payment.</t>
   </si>
   <si>
-    <t>karna</t>
-  </si>
-  <si>
     <t>demo123</t>
+  </si>
+  <si>
+    <t>azar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,9 +290,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,6 +342,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,20 +535,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,23 +556,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -539,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -554,21 +595,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -591,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -602,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -610,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -618,7 +659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -626,7 +667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -634,7 +675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -642,7 +683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -650,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -658,7 +699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -666,7 +707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -674,7 +715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -682,7 +723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -690,7 +731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -704,12 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Automation/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{4462ECC3-86FD-4788-9E60-D383FCC806F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D4AB7-FBFE-4447-9E0B-B76A316003D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>azar</t>
+    <t>ezhil</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284D4AB7-FBFE-4447-9E0B-B76A316003D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="12876" windowHeight="3516"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -153,14 +148,14 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>ezhil</t>
+    <t>karna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,27 +285,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,24 +319,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,20 +494,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -564,7 +523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,7 +531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -580,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -595,21 +554,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -632,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -643,7 +602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -651,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -659,7 +618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -667,7 +626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -675,7 +634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -683,7 +642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -691,7 +650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -699,7 +658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -707,7 +666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -715,7 +674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -723,7 +682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -731,7 +690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -745,12 +704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Commusoft/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_676DC69220667B4E712D0D83D79E42493F1EBF3F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52525AA2-7384-4850-BF0A-08865E43B026}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="12876" windowHeight="3516"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -148,14 +153,14 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>karna</t>
+    <t>azar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,9 +290,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,6 +342,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,20 +535,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -523,7 +564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -531,7 +572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -539,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -554,21 +595,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -591,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -602,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -610,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -618,7 +659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -626,7 +667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -634,7 +675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -642,7 +683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>27</v>
       </c>
@@ -650,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -658,7 +699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -666,7 +707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
@@ -674,7 +715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -682,7 +723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>37</v>
       </c>
@@ -690,7 +731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -704,12 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Commusoft/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_676DC69220667B4E712D0D83D79E42493F1EBF3F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52525AA2-7384-4850-BF0A-08865E43B026}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E179BC3-85BF-4812-BAF9-4FE433646ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>azar</t>
+    <t>ezhil</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Commusoft/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E179BC3-85BF-4812-BAF9-4FE433646ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9E179BC3-85BF-4812-BAF9-4FE433646ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63289533-C32A-4147-9E32-53F4F5386049}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>ezhil</t>
+    <t>azar</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Commusoft/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9E179BC3-85BF-4812-BAF9-4FE433646ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63289533-C32A-4147-9E32-53F4F5386049}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E515B6-C4E7-4849-A6E8-602421660167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>azar</t>
+    <t>ezhil</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E515B6-C4E7-4849-A6E8-602421660167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3D65C-530B-4A12-B4B3-E0AF733B99C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Checklist" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 

--- a/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
+++ b/Commusoft-Stage2&Live/TestDatas/Datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Commusoft--Stage-Live\Commusoft-Stage2&amp;Live\TestDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0c4ada4d22ca239/Desktop/Commusoft/Commusoft--Stage-Live/Commusoft-Stage2^0Live/TestDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3D65C-530B-4A12-B4B3-E0AF733B99C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CEA3D65C-530B-4A12-B4B3-E0AF733B99C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA51F904-BCD2-44D2-8822-5BF438EA6C51}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <t>demo123</t>
   </si>
   <si>
-    <t>ezhil</t>
+    <t>azar</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
